--- a/Notion data/Chấm công CẦN THƠ.xlsx
+++ b/Notion data/Chấm công CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="283">
   <si>
     <t>object</t>
   </si>
@@ -379,9 +379,30 @@
     <t>properties.STT.title</t>
   </si>
   <si>
+    <t>properties.Ngày 2.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 2.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 2.select.color</t>
+  </si>
+  <si>
+    <t>properties.Ngày 1.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 1.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 1.select.color</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
+    <t>db39755e-4efd-428a-bd78-6b20004c46d3</t>
+  </si>
+  <si>
     <t>bd1b93ae-92b3-44a4-b092-6e7e613e0a50</t>
   </si>
   <si>
@@ -445,6 +466,9 @@
     <t>d3c84516-20a0-4f9a-9895-85cd38b24c79</t>
   </si>
   <si>
+    <t>2024-08-02T08:23:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-24T15:27:00.000Z</t>
   </si>
   <si>
@@ -463,6 +487,9 @@
     <t>2024-06-30T08:07:00.000Z</t>
   </si>
   <si>
+    <t>2024-08-02T15:25:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-31T17:40:00.000Z</t>
   </si>
   <si>
@@ -475,6 +502,9 @@
     <t>2024-07-31T17:39:00.000Z</t>
   </si>
   <si>
+    <t>https://www.notion.so/db39755e4efd428abd786b20004c46d3</t>
+  </si>
+  <si>
     <t>https://www.notion.so/11-bd1b93ae92b344a4b0926e7e613e0a50</t>
   </si>
   <si>
@@ -541,6 +571,9 @@
     <t>user</t>
   </si>
   <si>
+    <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+  </si>
+  <si>
     <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
   </si>
   <si>
@@ -583,6 +616,9 @@
     <t>relation</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[{'id': '35f44955-2223-488a-8274-8db6f726d9f7'}]</t>
   </si>
   <si>
@@ -800,6 +836,33 @@
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
+  </si>
+  <si>
+    <t>DjwF</t>
+  </si>
+  <si>
+    <t>Oc}V</t>
+  </si>
+  <si>
+    <t>Đầy đủ</t>
+  </si>
+  <si>
+    <t>Nửa ngày</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>VRLp</t>
+  </si>
+  <si>
+    <t>Nghỉ có phép</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -1170,13 +1233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DQ22"/>
+  <dimension ref="A1:DW23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:121">
+    <row r="1" spans="1:127">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,19 +1603,37 @@
       <c r="DQ1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="2" spans="1:121">
+    <row r="2" spans="1:127">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1561,261 +1642,261 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ2" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="DK2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:121">
+    <row r="3" spans="1:127">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1824,261 +1905,279 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AR3" t="b">
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC3" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ3" t="s">
-        <v>242</v>
+        <v>253</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:121">
+    <row r="4" spans="1:127">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -2087,261 +2186,279 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AR4" t="b">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX4" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG4" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ4" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:121">
+    <row r="5" spans="1:127">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2350,261 +2467,279 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AR5" t="b">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ5" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW5" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC5" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR5" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ5" t="s">
-        <v>244</v>
+        <v>255</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:121">
+    <row r="6" spans="1:127">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2613,261 +2748,279 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO6" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AR6" t="b">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX6" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ6" t="s">
-        <v>245</v>
+        <v>256</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:121">
+    <row r="7" spans="1:127">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -2876,261 +3029,279 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AR7" t="b">
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ7" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:121">
+    <row r="8" spans="1:127">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -3139,261 +3310,279 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q8" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W8" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC8" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO8" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP8" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ8" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AR8" t="b">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY8" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH8" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK8" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC8" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF8" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI8" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO8" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR8" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA8" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD8" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI8" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ8" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="DK8" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL8" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ8" t="s">
-        <v>247</v>
+        <v>258</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:121">
+    <row r="9" spans="1:127">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -3402,261 +3591,261 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q9" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W9" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI9" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO9" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP9" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ9" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AR9" t="b">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK9" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN9" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ9" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT9" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW9" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ9" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF9" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL9" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU9" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX9" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD9" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG9" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI9" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="DK9" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL9" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ9" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:121">
+    <row r="10" spans="1:127">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -3665,261 +3854,261 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q10" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W10" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z10" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI10" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO10" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ10" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AR10" t="b">
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ10" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO10" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG10" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH10" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ10" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="DK10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO10" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP10" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ10" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:121">
+    <row r="11" spans="1:127">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -3928,261 +4117,261 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q11" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W11" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z11" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF11" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL11" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO11" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP11" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ11" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AR11" t="b">
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV11" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB11" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH11" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK11" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN11" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ11" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT11" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW11" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ11" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC11" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF11" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI11" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR11" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU11" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX11" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA11" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH11" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI11" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ11" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="DK11" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL11" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO11" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP11" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ11" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:121">
+    <row r="12" spans="1:127">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -4191,261 +4380,261 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N12" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O12" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q12" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T12" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W12" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z12" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC12" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI12" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO12" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP12" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ12" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AR12" t="b">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV12" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY12" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB12" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE12" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH12" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK12" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN12" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ12" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW12" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ12" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC12" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF12" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI12" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO12" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR12" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU12" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX12" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA12" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI12" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ12" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="DK12" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL12" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ12" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:121">
+    <row r="13" spans="1:127">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -4454,261 +4643,261 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O13" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q13" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC13" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ13" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AR13" t="b">
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV13" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB13" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE13" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH13" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK13" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN13" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ13" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ13" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC13" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF13" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL13" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR13" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA13" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD13" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG13" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH13" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ13" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="DK13" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL13" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO13" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP13" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ13" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:121">
+    <row r="14" spans="1:127">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -4717,261 +4906,261 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O14" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q14" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T14" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W14" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC14" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI14" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL14" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO14" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP14" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ14" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AR14" t="b">
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV14" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB14" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE14" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH14" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN14" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ14" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT14" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW14" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ14" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC14" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF14" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI14" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO14" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR14" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU14" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX14" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA14" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD14" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG14" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH14" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI14" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ14" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="DK14" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL14" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO14" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP14" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ14" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:121">
+    <row r="15" spans="1:127">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -4980,261 +5169,279 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q15" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T15" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W15" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC15" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ15" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AR15" t="b">
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV15" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY15" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB15" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE15" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH15" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK15" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN15" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ15" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT15" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW15" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ15" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC15" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF15" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI15" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL15" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO15" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR15" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU15" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX15" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA15" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD15" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG15" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH15" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK15" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL15" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO15" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP15" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ15" t="s">
-        <v>254</v>
+        <v>265</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:121">
+    <row r="16" spans="1:127">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -5243,261 +5450,279 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC16" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI16" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ16" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AR16" t="b">
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV16" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY16" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB16" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE16" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH16" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK16" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN16" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ16" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT16" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ16" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC16" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF16" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI16" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO16" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR16" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU16" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX16" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA16" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD16" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG16" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH16" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI16" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ16" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DK16" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL16" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO16" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP16" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ16" t="s">
-        <v>255</v>
+        <v>266</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>275</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>277</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>279</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>280</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>281</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:121">
+    <row r="17" spans="1:127">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -5506,261 +5731,261 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q17" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T17" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC17" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI17" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP17" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ17" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AR17" t="b">
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV17" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY17" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB17" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE17" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH17" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK17" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN17" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ17" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT17" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW17" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ17" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC17" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF17" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI17" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL17" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO17" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR17" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU17" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX17" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA17" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD17" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG17" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH17" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI17" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ17" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="DK17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL17" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO17" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP17" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ17" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:121">
+    <row r="18" spans="1:127">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -5769,261 +5994,279 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q18" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T18" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC18" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI18" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP18" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ18" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AR18" t="b">
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV18" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY18" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB18" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE18" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH18" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK18" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN18" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ18" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT18" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW18" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ18" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC18" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF18" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL18" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO18" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU18" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX18" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA18" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD18" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG18" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH18" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI18" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ18" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="DK18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO18" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP18" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ18" t="s">
-        <v>257</v>
+        <v>268</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:121">
+    <row r="19" spans="1:127">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -6032,261 +6275,279 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T19" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z19" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI19" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP19" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ19" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AR19" t="b">
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV19" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY19" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK19" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ19" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW19" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ19" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC19" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF19" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI19" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO19" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR19" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU19" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA19" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD19" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG19" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH19" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI19" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ19" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="DK19" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL19" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ19" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:121">
+    <row r="20" spans="1:127">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -6295,261 +6556,261 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q20" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T20" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W20" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z20" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC20" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI20" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO20" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP20" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ20" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AR20" t="b">
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV20" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY20" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH20" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK20" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN20" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ20" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT20" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW20" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ20" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC20" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF20" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL20" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO20" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR20" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU20" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX20" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA20" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD20" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG20" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH20" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI20" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ20" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="DK20" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL20" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM20" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO20" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP20" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ20" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:121">
+    <row r="21" spans="1:127">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -6558,261 +6819,261 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q21" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T21" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z21" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC21" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI21" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO21" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP21" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AR21" t="b">
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV21" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE21" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH21" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK21" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN21" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ21" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT21" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW21" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ21" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CA21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CC21" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CD21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CF21" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CG21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CI21" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CJ21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CL21" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CM21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CO21" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CP21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CR21" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CS21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CU21" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CV21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="CX21" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CY21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DA21" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="DB21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DD21" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="DE21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG21" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="DH21" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DI21" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DJ21" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="DK21" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DL21" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DM21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DO21" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DP21" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DQ21" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:121">
+    <row r="22" spans="1:127">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -6821,247 +7082,528 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q22" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="T22" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="U22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Z22" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AC22" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AI22" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AL22" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AM22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AO22" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AQ22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AR22" t="b">
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AT22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV22" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AW22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AY22" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AZ22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BB22" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="BC22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BE22" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="BF22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BH22" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="BI22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BK22" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="BL22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BN22" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="BO22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BQ22" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="BR22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BT22" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="BU22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BW22" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BX22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="BZ22" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>237</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>238</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>240</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>241</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>190</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>242</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>243</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>190</v>
+      </c>
+      <c r="DG22" t="s">
+        <v>244</v>
+      </c>
+      <c r="DH22" t="s">
+        <v>245</v>
+      </c>
+      <c r="DI22" t="s">
+        <v>246</v>
+      </c>
+      <c r="DJ22" t="s">
+        <v>249</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>250</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM22" t="s">
+        <v>190</v>
+      </c>
+      <c r="DO22" t="s">
+        <v>252</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>252</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:127">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>189</v>
+      </c>
+      <c r="R23" t="s">
+        <v>190</v>
+      </c>
+      <c r="T23" t="s">
+        <v>191</v>
+      </c>
+      <c r="U23" t="s">
+        <v>190</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>221</v>
       </c>
-      <c r="CA22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC22" t="s">
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="s">
         <v>222</v>
       </c>
-      <c r="CD22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF22" t="s">
+      <c r="AT23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV23" t="s">
         <v>223</v>
       </c>
-      <c r="CG22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI22" t="s">
+      <c r="AW23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY23" t="s">
         <v>224</v>
       </c>
-      <c r="CJ22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CL22" t="s">
+      <c r="AZ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB23" t="s">
         <v>225</v>
       </c>
-      <c r="CM22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CO22" t="s">
+      <c r="BC23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE23" t="s">
         <v>226</v>
       </c>
-      <c r="CP22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CR22" t="s">
+      <c r="BF23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH23" t="s">
         <v>227</v>
       </c>
-      <c r="CS22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CU22" t="s">
+      <c r="BI23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK23" t="s">
         <v>228</v>
       </c>
-      <c r="CV22" t="s">
-        <v>179</v>
-      </c>
-      <c r="CX22" t="s">
+      <c r="BL23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN23" t="s">
         <v>229</v>
       </c>
-      <c r="CY22" t="s">
-        <v>179</v>
-      </c>
-      <c r="DA22" t="s">
+      <c r="BO23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>230</v>
       </c>
-      <c r="DB22" t="s">
-        <v>179</v>
-      </c>
-      <c r="DD22" t="s">
+      <c r="BR23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT23" t="s">
         <v>231</v>
       </c>
-      <c r="DE22" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG22" t="s">
+      <c r="BU23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW23" t="s">
         <v>232</v>
       </c>
-      <c r="DH22" t="s">
+      <c r="BX23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>233</v>
       </c>
-      <c r="DI22" t="s">
+      <c r="CA23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC23" t="s">
         <v>234</v>
       </c>
-      <c r="DJ22" t="s">
+      <c r="CD23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF23" t="s">
         <v>235</v>
       </c>
-      <c r="DK22" t="s">
+      <c r="CG23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>237</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO23" t="s">
         <v>238</v>
       </c>
-      <c r="DL22" t="s">
+      <c r="CP23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR23" t="s">
         <v>239</v>
       </c>
-      <c r="DM22" t="s">
-        <v>179</v>
-      </c>
-      <c r="DO22" t="s">
+      <c r="CS23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CU23" t="s">
         <v>240</v>
       </c>
-      <c r="DP22" t="s">
-        <v>240</v>
-      </c>
-      <c r="DQ22" t="s">
-        <v>261</v>
+      <c r="CV23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>241</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>242</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>243</v>
+      </c>
+      <c r="DE23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DG23" t="s">
+        <v>244</v>
+      </c>
+      <c r="DH23" t="s">
+        <v>245</v>
+      </c>
+      <c r="DI23" t="s">
+        <v>246</v>
+      </c>
+      <c r="DJ23" t="s">
+        <v>247</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>250</v>
+      </c>
+      <c r="DL23" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>252</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>252</v>
+      </c>
+      <c r="DQ23" t="s">
+        <v>273</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>276</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>278</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>276</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7087,6 +7629,7 @@
     <hyperlink ref="I20" r:id="rId19"/>
     <hyperlink ref="I21" r:id="rId20"/>
     <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Chấm công CẦN THƠ.xlsx
+++ b/Notion data/Chấm công CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="308">
   <si>
     <t>object</t>
   </si>
@@ -379,6 +379,33 @@
     <t>properties.STT.title</t>
   </si>
   <si>
+    <t>properties.Ngày 6.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 6.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 6.select.color</t>
+  </si>
+  <si>
+    <t>properties.Ngày 5.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 5.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 5.select.color</t>
+  </si>
+  <si>
+    <t>properties.Ngày 3.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 3.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 3.select.color</t>
+  </si>
+  <si>
     <t>properties.Ngày 2.select.id</t>
   </si>
   <si>
@@ -388,6 +415,15 @@
     <t>properties.Ngày 2.select.color</t>
   </si>
   <si>
+    <t>properties.Ngày 7.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 7.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 7.select.color</t>
+  </si>
+  <si>
     <t>properties.Ngày 1.select.id</t>
   </si>
   <si>
@@ -397,6 +433,24 @@
     <t>properties.Ngày 1.select.color</t>
   </si>
   <si>
+    <t>properties.Ngày 8.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 8.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 8.select.color</t>
+  </si>
+  <si>
+    <t>properties.Ngày 4.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 4.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 4.select.color</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
@@ -487,7 +541,7 @@
     <t>2024-06-30T08:07:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-02T15:25:00.000Z</t>
+    <t>2024-08-08T14:22:00.000Z</t>
   </si>
   <si>
     <t>2024-07-31T17:40:00.000Z</t>
@@ -502,6 +556,9 @@
     <t>2024-07-31T17:39:00.000Z</t>
   </si>
   <si>
+    <t>2024-08-08T14:21:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.notion.so/db39755e4efd428abd786b20004c46d3</t>
   </si>
   <si>
@@ -841,28 +898,46 @@
     <t>DjwF</t>
   </si>
   <si>
+    <t>VRLp</t>
+  </si>
+  <si>
+    <t>Đầy đủ</t>
+  </si>
+  <si>
+    <t>Nghỉ có phép</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>ruIx</t>
+  </si>
+  <si>
+    <t>Nghỉ không phép</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>LH?{</t>
+  </si>
+  <si>
+    <t>Nửa ngày</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>Oc}V</t>
   </si>
   <si>
-    <t>Đầy đủ</t>
-  </si>
-  <si>
-    <t>Nửa ngày</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>VRLp</t>
-  </si>
-  <si>
-    <t>Nghỉ có phép</t>
-  </si>
-  <si>
-    <t>blue</t>
+    <t>eJlF</t>
+  </si>
+  <si>
+    <t>|OQI</t>
   </si>
 </sst>
 </file>
@@ -1233,13 +1308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DW23"/>
+  <dimension ref="A1:EO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:127">
+    <row r="1" spans="1:145">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,19 +1696,73 @@
       <c r="DW1" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="2" spans="1:127">
+    <row r="2" spans="1:145">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1642,261 +1771,261 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q2" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T2" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W2" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z2" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC2" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF2" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI2" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL2" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC2" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI2" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR2" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD2" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG2" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH2" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI2" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="DK2" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL2" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:127">
+    <row r="3" spans="1:145">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1905,279 +2034,333 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI3" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AR3" t="b">
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE3" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT3" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ3" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF3" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI3" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA3" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD3" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI3" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="DR3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW3" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:127">
+    <row r="4" spans="1:145">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -2186,279 +2369,333 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z4" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC4" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF4" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI4" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP4" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="AR4" t="b">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV4" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB4" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH4" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ4" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT4" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW4" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC4" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF4" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI4" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL4" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR4" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD4" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH4" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK4" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ4" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="DR4" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS4" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT4" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU4" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV4" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW4" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:127">
+    <row r="5" spans="1:145">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2467,279 +2704,333 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N5" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O5" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q5" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W5" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z5" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC5" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF5" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI5" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP5" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ5" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AR5" t="b">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV5" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY5" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT5" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW5" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ5" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC5" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO5" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR5" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU5" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX5" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA5" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG5" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH5" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI5" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ5" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK5" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL5" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ5" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="DR5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS5" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT5" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV5" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW5" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:127">
+    <row r="6" spans="1:145">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2748,279 +3039,333 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T6" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W6" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI6" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO6" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ6" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AR6" t="b">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV6" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY6" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB6" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE6" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH6" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK6" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN6" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ6" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT6" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ6" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC6" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF6" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI6" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL6" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO6" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR6" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU6" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX6" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA6" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD6" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG6" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH6" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI6" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ6" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK6" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL6" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO6" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP6" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ6" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="DR6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS6" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT6" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV6" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW6" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:127">
+    <row r="7" spans="1:145">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3029,279 +3374,333 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AR7" t="b">
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="DR7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW7" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:127">
+    <row r="8" spans="1:145">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -3310,279 +3709,333 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q8" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T8" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W8" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z8" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC8" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF8" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI8" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL8" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO8" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP8" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ8" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AR8" t="b">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV8" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY8" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB8" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE8" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH8" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK8" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN8" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ8" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT8" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW8" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ8" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC8" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF8" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI8" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL8" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO8" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR8" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU8" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX8" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA8" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD8" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG8" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH8" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI8" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ8" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK8" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL8" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO8" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP8" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ8" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="DR8" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS8" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT8" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU8" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV8" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW8" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:127">
+    <row r="9" spans="1:145">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -3591,261 +4044,261 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L9" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O9" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q9" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T9" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W9" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z9" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF9" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI9" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL9" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO9" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP9" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ9" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AR9" t="b">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV9" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY9" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB9" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE9" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH9" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK9" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN9" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ9" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT9" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW9" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ9" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC9" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF9" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI9" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL9" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO9" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR9" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU9" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX9" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA9" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD9" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG9" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH9" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI9" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ9" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DK9" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL9" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO9" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP9" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ9" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:127">
+    <row r="10" spans="1:145">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -3854,261 +4307,261 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q10" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T10" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z10" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC10" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF10" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI10" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL10" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO10" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP10" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ10" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="AR10" t="b">
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV10" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY10" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB10" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE10" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH10" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK10" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN10" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ10" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT10" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW10" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ10" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC10" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF10" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI10" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL10" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO10" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR10" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU10" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX10" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA10" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD10" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG10" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH10" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI10" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ10" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DK10" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL10" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO10" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP10" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ10" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:127">
+    <row r="11" spans="1:145">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -4117,261 +4570,261 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L11" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N11" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O11" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q11" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T11" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W11" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z11" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC11" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF11" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI11" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL11" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO11" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP11" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ11" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AR11" t="b">
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV11" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY11" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB11" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE11" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH11" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK11" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN11" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ11" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT11" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW11" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ11" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC11" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF11" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI11" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL11" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO11" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR11" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU11" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX11" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA11" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG11" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH11" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI11" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ11" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="DK11" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL11" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO11" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP11" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ11" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:127">
+    <row r="12" spans="1:145">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -4380,261 +4833,261 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M12" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O12" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q12" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T12" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W12" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z12" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC12" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF12" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI12" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL12" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO12" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP12" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ12" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="AR12" t="b">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV12" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB12" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE12" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH12" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK12" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN12" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ12" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT12" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW12" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ12" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC12" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF12" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI12" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL12" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO12" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR12" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU12" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX12" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA12" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD12" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG12" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH12" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI12" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ12" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="DK12" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL12" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM12" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO12" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP12" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ12" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:127">
+    <row r="13" spans="1:145">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -4643,261 +5096,261 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L13" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O13" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q13" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T13" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W13" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z13" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC13" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF13" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI13" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL13" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO13" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP13" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ13" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="AR13" t="b">
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV13" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB13" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE13" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH13" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK13" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN13" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ13" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT13" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW13" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ13" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC13" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF13" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI13" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL13" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO13" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR13" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU13" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX13" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA13" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD13" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG13" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH13" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI13" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ13" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DK13" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL13" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO13" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP13" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ13" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:127">
+    <row r="14" spans="1:145">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -4906,261 +5359,261 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L14" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M14" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N14" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O14" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q14" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T14" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z14" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC14" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF14" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI14" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL14" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP14" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ14" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AR14" t="b">
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV14" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY14" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB14" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE14" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH14" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK14" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN14" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ14" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT14" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW14" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ14" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC14" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF14" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI14" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL14" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO14" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR14" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU14" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX14" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA14" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD14" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG14" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH14" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI14" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ14" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DK14" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL14" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO14" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP14" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ14" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:127">
+    <row r="15" spans="1:145">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -5169,279 +5622,333 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L15" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N15" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O15" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q15" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T15" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W15" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z15" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC15" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF15" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI15" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL15" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP15" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ15" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AR15" t="b">
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV15" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY15" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB15" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE15" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH15" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK15" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN15" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ15" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT15" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW15" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ15" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC15" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF15" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI15" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL15" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO15" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR15" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU15" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX15" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA15" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD15" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG15" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH15" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI15" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ15" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL15" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO15" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP15" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ15" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="DR15" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS15" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT15" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU15" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV15" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW15" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>303</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>304</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>307</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>303</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:127">
+    <row r="16" spans="1:145">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -5450,279 +5957,333 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q16" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T16" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W16" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC16" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF16" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI16" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL16" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP16" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ16" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="AR16" t="b">
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV16" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY16" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB16" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE16" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH16" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK16" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN16" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ16" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT16" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ16" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC16" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF16" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI16" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL16" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO16" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR16" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU16" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX16" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA16" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD16" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG16" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH16" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI16" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ16" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK16" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO16" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP16" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ16" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="DR16" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="DS16" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="DT16" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="DU16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="DV16" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="DW16" t="s">
-        <v>282</v>
+        <v>301</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>303</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>304</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>305</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>303</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>304</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>294</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>296</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>298</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>299</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>300</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:127">
+    <row r="17" spans="1:145">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -5731,261 +6292,261 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q17" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T17" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC17" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF17" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI17" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP17" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AR17" t="b">
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV17" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY17" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB17" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE17" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH17" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK17" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN17" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ17" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT17" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW17" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ17" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC17" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF17" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI17" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL17" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO17" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR17" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU17" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA17" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD17" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG17" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH17" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI17" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ17" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="DK17" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL17" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM17" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO17" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP17" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ17" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:127">
+    <row r="18" spans="1:145">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -5994,279 +6555,333 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q18" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T18" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC18" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF18" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI18" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP18" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AR18" t="b">
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV18" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY18" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB18" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE18" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH18" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK18" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN18" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ18" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT18" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW18" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ18" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC18" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF18" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI18" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL18" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO18" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR18" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU18" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX18" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA18" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD18" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG18" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH18" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI18" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK18" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL18" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM18" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO18" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP18" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ18" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="DR18" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="DS18" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="DT18" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="DU18" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="DV18" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="DW18" t="s">
-        <v>278</v>
+        <v>298</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC18" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>299</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>300</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>301</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH18" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>299</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>300</v>
+      </c>
+      <c r="EL18" t="s">
+        <v>301</v>
+      </c>
+      <c r="EM18" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN18" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:127">
+    <row r="19" spans="1:145">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -6275,279 +6890,333 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q19" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC19" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI19" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP19" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ19" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="AR19" t="b">
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV19" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY19" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB19" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE19" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH19" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK19" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN19" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ19" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT19" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW19" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ19" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC19" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF19" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI19" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL19" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO19" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR19" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU19" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX19" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA19" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD19" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG19" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH19" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI19" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK19" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL19" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM19" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO19" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP19" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ19" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="DR19" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS19" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT19" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU19" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV19" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW19" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>306</v>
+      </c>
+      <c r="EE19" t="s">
+        <v>303</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>304</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>294</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>296</v>
+      </c>
+      <c r="EL19" t="s">
+        <v>298</v>
+      </c>
+      <c r="EM19" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:127">
+    <row r="20" spans="1:145">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -6556,261 +7225,261 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ20" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="AR20" t="b">
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV20" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY20" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB20" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE20" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH20" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK20" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN20" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ20" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT20" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW20" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ20" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC20" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF20" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI20" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL20" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO20" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR20" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU20" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX20" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA20" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD20" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG20" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH20" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI20" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ20" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DK20" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL20" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO20" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP20" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ20" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:127">
+    <row r="21" spans="1:145">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -6819,261 +7488,261 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AR21" t="b">
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV21" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY21" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB21" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE21" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH21" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK21" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN21" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ21" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT21" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW21" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ21" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC21" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF21" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI21" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL21" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO21" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR21" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU21" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX21" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA21" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD21" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG21" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH21" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI21" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ21" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="DK21" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL21" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO21" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP21" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ21" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:127">
+    <row r="22" spans="1:145">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -7082,261 +7751,261 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T22" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC22" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ22" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="AR22" t="b">
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV22" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY22" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB22" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE22" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH22" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK22" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN22" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ22" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT22" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW22" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ22" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC22" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF22" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI22" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL22" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO22" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR22" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU22" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX22" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA22" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD22" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG22" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH22" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI22" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ22" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="DK22" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL22" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO22" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP22" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ22" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:127">
+    <row r="23" spans="1:145">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -7345,265 +8014,319 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q23" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T23" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="U23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Z23" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AA23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AC23" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AD23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AI23" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AJ23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AO23" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AP23" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AQ23" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="AR23" t="b">
         <v>0</v>
       </c>
       <c r="AS23" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AT23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AV23" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AW23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AY23" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BB23" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="BC23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BE23" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="BF23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BH23" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="BI23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BK23" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="BL23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BN23" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="BO23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BQ23" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="BR23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BT23" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BU23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BW23" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BX23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="BZ23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="CA23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CC23" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="CD23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CF23" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="CG23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CI23" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="CJ23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CL23" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="CM23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CO23" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="CP23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CR23" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="CS23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CU23" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="CV23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="CX23" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="CY23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DA23" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="DB23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DD23" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="DE23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DG23" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="DH23" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="DI23" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DJ23" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="DK23" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="DL23" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="DM23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="DO23" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DP23" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="DQ23" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DR23" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DS23" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DT23" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="DU23" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="DV23" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="DW23" t="s">
-        <v>278</v>
+        <v>297</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>297</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>295</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>297</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>293</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>295</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>297</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>293</v>
+      </c>
+      <c r="EH23" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>297</v>
+      </c>
+      <c r="EJ23" t="s">
+        <v>293</v>
+      </c>
+      <c r="EK23" t="s">
+        <v>295</v>
+      </c>
+      <c r="EL23" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM23" t="s">
+        <v>293</v>
+      </c>
+      <c r="EN23" t="s">
+        <v>295</v>
+      </c>
+      <c r="EO23" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Chấm công CẦN THƠ.xlsx
+++ b/Notion data/Chấm công CẦN THƠ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="317">
   <si>
     <t>object</t>
   </si>
@@ -397,6 +397,15 @@
     <t>properties.Ngày 5.select.color</t>
   </si>
   <si>
+    <t>properties.Ngày 11.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 11.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 11.select.color</t>
+  </si>
+  <si>
     <t>properties.Ngày 3.select.id</t>
   </si>
   <si>
@@ -406,6 +415,15 @@
     <t>properties.Ngày 3.select.color</t>
   </si>
   <si>
+    <t>properties.Ngày 10.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 10.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 10.select.color</t>
+  </si>
+  <si>
     <t>properties.Ngày 2.select.id</t>
   </si>
   <si>
@@ -433,6 +451,15 @@
     <t>properties.Ngày 1.select.color</t>
   </si>
   <si>
+    <t>properties.Ngày 9.select.id</t>
+  </si>
+  <si>
+    <t>properties.Ngày 9.select.name</t>
+  </si>
+  <si>
+    <t>properties.Ngày 9.select.color</t>
+  </si>
+  <si>
     <t>properties.Ngày 8.select.id</t>
   </si>
   <si>
@@ -541,7 +568,7 @@
     <t>2024-06-30T08:07:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-08T14:22:00.000Z</t>
+    <t>2024-08-11T12:32:00.000Z</t>
   </si>
   <si>
     <t>2024-07-31T17:40:00.000Z</t>
@@ -556,7 +583,7 @@
     <t>2024-07-31T17:39:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-08T14:21:00.000Z</t>
+    <t>2024-08-11T12:31:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/db39755e4efd428abd786b20004c46d3</t>
@@ -1308,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EO23"/>
+  <dimension ref="A1:EX23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:145">
+    <row r="1" spans="1:154">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,19 +1777,46 @@
       <c r="EO1" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="2" spans="1:145">
+    <row r="2" spans="1:154">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1771,261 +1825,261 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="DK2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:145">
+    <row r="3" spans="1:154">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2034,333 +2088,360 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AR3" t="b">
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="DR3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO3" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:145">
+    <row r="4" spans="1:154">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -2369,333 +2450,360 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ4" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AR4" t="b">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY4" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX4" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI4" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="DR4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO4" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:145">
+    <row r="5" spans="1:154">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2704,333 +2812,360 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP5" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AR5" t="b">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="DR5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO5" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:145">
+    <row r="6" spans="1:154">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3039,333 +3174,360 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AR6" t="b">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC6" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF6" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX6" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="DR6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO6" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:145">
+    <row r="7" spans="1:154">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3374,333 +3536,360 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AR7" t="b">
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="DR7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO7" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:145">
+    <row r="8" spans="1:154">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -3709,333 +3898,360 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP8" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AR8" t="b">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV8" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH8" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW8" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC8" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI8" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL8" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO8" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR8" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU8" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX8" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD8" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG8" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH8" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ8" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK8" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ8" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="DR8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EE8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EF8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EG8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO8" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:145">
+    <row r="9" spans="1:154">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -4044,261 +4260,261 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T9" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z9" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC9" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI9" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL9" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO9" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP9" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AR9" t="b">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY9" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB9" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN9" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF9" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI9" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL9" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU9" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX9" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA9" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG9" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI9" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ9" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DK9" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO9" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP9" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ9" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:145">
+    <row r="10" spans="1:154">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -4307,261 +4523,261 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T10" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z10" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC10" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO10" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AR10" t="b">
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV10" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY10" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB10" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE10" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH10" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN10" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ10" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ10" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC10" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI10" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL10" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO10" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR10" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX10" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA10" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD10" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ10" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DK10" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL10" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:145">
+    <row r="11" spans="1:154">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -4570,261 +4786,261 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N11" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O11" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q11" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T11" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI11" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP11" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ11" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AR11" t="b">
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV11" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY11" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB11" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH11" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK11" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN11" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ11" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT11" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC11" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI11" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL11" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO11" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR11" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU11" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX11" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA11" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD11" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG11" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI11" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DK11" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL11" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO11" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP11" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ11" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:145">
+    <row r="12" spans="1:154">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -4833,261 +5049,261 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T12" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC12" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF12" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI12" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO12" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AR12" t="b">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY12" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB12" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK12" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN12" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ12" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT12" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC12" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF12" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI12" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL12" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO12" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU12" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX12" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG12" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH12" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ12" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DK12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL12" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO12" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP12" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ12" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:145">
+    <row r="13" spans="1:154">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -5096,261 +5312,261 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M13" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N13" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T13" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z13" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC13" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF13" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI13" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL13" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO13" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ13" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AR13" t="b">
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY13" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB13" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE13" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH13" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK13" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN13" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ13" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT13" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW13" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ13" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC13" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF13" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL13" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO13" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR13" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU13" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX13" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA13" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD13" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG13" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH13" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI13" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ13" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DK13" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL13" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO13" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP13" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ13" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:145">
+    <row r="14" spans="1:154">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -5359,261 +5575,261 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M14" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q14" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T14" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W14" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z14" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC14" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF14" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI14" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO14" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP14" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ14" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AR14" t="b">
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV14" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY14" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB14" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH14" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK14" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN14" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ14" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT14" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW14" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ14" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC14" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF14" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL14" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO14" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR14" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU14" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX14" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA14" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD14" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG14" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH14" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI14" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ14" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DK14" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL14" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO14" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP14" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ14" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:145">
+    <row r="15" spans="1:154">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -5622,333 +5838,360 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N15" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T15" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W15" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z15" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC15" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF15" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI15" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO15" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP15" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ15" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AR15" t="b">
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV15" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY15" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB15" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE15" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH15" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK15" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN15" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ15" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW15" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ15" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC15" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF15" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI15" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL15" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU15" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX15" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA15" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD15" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG15" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH15" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI15" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ15" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK15" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL15" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO15" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP15" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ15" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="DR15" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS15" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU15" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV15" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX15" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="DY15" t="s">
+        <v>309</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>311</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>312</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>313</v>
+      </c>
+      <c r="ED15" t="s">
         <v>303</v>
       </c>
-      <c r="DZ15" t="s">
-        <v>304</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>293</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>295</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>297</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>293</v>
-      </c>
       <c r="EE15" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="EF15" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="EG15" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH15" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ15" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK15" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="EN15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="EO15" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>316</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>312</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:145">
+    <row r="16" spans="1:154">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -5957,333 +6200,360 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L16" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M16" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T16" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z16" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC16" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF16" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI16" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO16" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP16" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AR16" t="b">
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV16" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB16" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN16" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW16" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ16" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC16" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF16" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI16" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL16" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO16" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU16" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX16" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA16" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD16" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG16" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH16" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI16" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ16" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK16" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL16" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO16" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP16" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ16" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="DR16" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS16" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU16" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="DV16" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="DW16" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="DX16" t="s">
         <v>302</v>
       </c>
       <c r="DY16" t="s">
+        <v>304</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>306</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>311</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>312</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>313</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>302</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>304</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>306</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>314</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>312</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>313</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>302</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>304</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>306</v>
+      </c>
+      <c r="EM16" t="s">
         <v>303</v>
       </c>
-      <c r="DZ16" t="s">
-        <v>304</v>
-      </c>
-      <c r="EA16" t="s">
+      <c r="EN16" t="s">
         <v>305</v>
       </c>
-      <c r="EB16" t="s">
-        <v>303</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>304</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>293</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>295</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>297</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>294</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>296</v>
-      </c>
-      <c r="EI16" t="s">
-        <v>298</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>293</v>
-      </c>
-      <c r="EK16" t="s">
-        <v>295</v>
-      </c>
-      <c r="EL16" t="s">
-        <v>297</v>
-      </c>
-      <c r="EM16" t="s">
-        <v>299</v>
-      </c>
-      <c r="EN16" t="s">
-        <v>300</v>
-      </c>
       <c r="EO16" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>308</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>309</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:145">
+    <row r="17" spans="1:154">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -6292,261 +6562,261 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W17" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z17" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC17" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI17" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP17" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ17" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AR17" t="b">
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY17" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB17" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK17" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN17" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ17" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT17" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW17" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ17" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC17" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF17" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI17" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO17" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR17" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU17" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX17" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA17" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG17" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH17" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI17" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ17" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DK17" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL17" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO17" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP17" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ17" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:145">
+    <row r="18" spans="1:154">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -6555,333 +6825,360 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q18" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T18" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W18" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z18" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC18" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF18" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI18" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL18" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ18" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AR18" t="b">
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV18" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY18" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB18" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH18" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK18" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN18" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ18" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT18" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW18" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ18" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC18" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF18" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI18" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL18" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO18" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU18" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX18" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA18" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD18" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG18" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH18" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI18" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ18" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK18" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL18" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO18" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP18" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ18" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="DR18" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="DS18" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="DT18" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="DU18" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="DV18" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="DW18" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="DX18" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY18" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ18" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA18" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB18" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC18" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="EE18" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="EF18" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="EG18" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH18" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI18" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ18" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="EK18" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="EL18" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="EM18" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN18" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO18" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP18" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES18" t="s">
+        <v>308</v>
+      </c>
+      <c r="ET18" t="s">
+        <v>309</v>
+      </c>
+      <c r="EU18" t="s">
+        <v>310</v>
+      </c>
+      <c r="EV18" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW18" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX18" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:145">
+    <row r="19" spans="1:154">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -6890,333 +7187,360 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q19" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z19" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC19" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF19" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI19" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP19" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ19" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AR19" t="b">
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV19" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY19" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB19" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE19" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH19" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK19" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN19" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ19" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT19" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW19" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC19" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF19" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL19" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO19" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR19" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX19" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA19" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD19" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG19" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH19" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI19" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ19" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK19" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL19" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO19" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP19" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ19" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="DR19" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS19" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT19" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU19" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV19" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW19" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX19" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY19" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ19" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA19" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB19" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC19" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="EE19" t="s">
+        <v>304</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>306</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>302</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>304</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>306</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>312</v>
+      </c>
+      <c r="EL19" t="s">
+        <v>313</v>
+      </c>
+      <c r="EM19" t="s">
+        <v>302</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>304</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>306</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER19" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES19" t="s">
         <v>303</v>
       </c>
-      <c r="EF19" t="s">
-        <v>304</v>
-      </c>
-      <c r="EG19" t="s">
-        <v>293</v>
-      </c>
-      <c r="EH19" t="s">
-        <v>295</v>
-      </c>
-      <c r="EI19" t="s">
-        <v>297</v>
-      </c>
-      <c r="EJ19" t="s">
-        <v>294</v>
-      </c>
-      <c r="EK19" t="s">
-        <v>296</v>
-      </c>
-      <c r="EL19" t="s">
-        <v>298</v>
-      </c>
-      <c r="EM19" t="s">
-        <v>293</v>
-      </c>
-      <c r="EN19" t="s">
-        <v>295</v>
-      </c>
-      <c r="EO19" t="s">
-        <v>297</v>
+      <c r="ET19" t="s">
+        <v>305</v>
+      </c>
+      <c r="EU19" t="s">
+        <v>307</v>
+      </c>
+      <c r="EV19" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX19" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:145">
+    <row r="20" spans="1:154">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -7225,261 +7549,261 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC20" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI20" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP20" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ20" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AR20" t="b">
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV20" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY20" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB20" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE20" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH20" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK20" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN20" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ20" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT20" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW20" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ20" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC20" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI20" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL20" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO20" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR20" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU20" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX20" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA20" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD20" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG20" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH20" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI20" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ20" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DK20" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO20" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP20" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ20" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:145">
+    <row r="21" spans="1:154">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -7488,261 +7812,261 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q21" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T21" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC21" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI21" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP21" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AR21" t="b">
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV21" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY21" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB21" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE21" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH21" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN21" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ21" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT21" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW21" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ21" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC21" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF21" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI21" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO21" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR21" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU21" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX21" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD21" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG21" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH21" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI21" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ21" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DK21" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL21" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO21" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP21" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ21" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:145">
+    <row r="22" spans="1:154">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -7751,261 +8075,261 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q22" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T22" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI22" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP22" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ22" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AR22" t="b">
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB22" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE22" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH22" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK22" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN22" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ22" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT22" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW22" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ22" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC22" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF22" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI22" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL22" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO22" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR22" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU22" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX22" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD22" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG22" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH22" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI22" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ22" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="DK22" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL22" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO22" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP22" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ22" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:145">
+    <row r="23" spans="1:154">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -8014,319 +8338,346 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q23" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="R23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T23" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AA23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AC23" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AD23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AI23" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AJ23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AP23" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AQ23" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AR23" t="b">
         <v>0</v>
       </c>
       <c r="AS23" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AT23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AV23" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AW23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AY23" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AZ23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BB23" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="BC23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BE23" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="BF23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BH23" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="BI23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BK23" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="BL23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BN23" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="BO23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BQ23" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="BR23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="BU23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BW23" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BX23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BZ23" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CA23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CC23" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CD23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CF23" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="CG23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CI23" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="CJ23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CL23" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="CM23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CO23" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="CP23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CR23" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="CS23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CU23" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="CV23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="CX23" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="CY23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DA23" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="DB23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DD23" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="DE23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DG23" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="DH23" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DI23" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="DJ23" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="DK23" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="DL23" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="DM23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DO23" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DP23" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DQ23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="DR23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DS23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DT23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DU23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DV23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DW23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="DX23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="DY23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="DZ23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EA23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EB23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EC23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="ED23" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="EE23" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="EF23" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="EG23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EH23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EI23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EJ23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EK23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EL23" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="EM23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="EN23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="EO23" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="EP23" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER23" t="s">
+        <v>306</v>
+      </c>
+      <c r="ES23" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET23" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU23" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV23" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW23" t="s">
+        <v>304</v>
+      </c>
+      <c r="EX23" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
